--- a/models/mini_fixedwing_11/team11.xlsx
+++ b/models/mini_fixedwing_11/team11.xlsx
@@ -562,7 +562,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,6 +596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
@@ -634,7 +640,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -751,6 +757,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -804,7 +818,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -844,14 +858,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:colOff>228960</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:colOff>235080</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -865,8 +879,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11163600" y="7153200"/>
-          <a:ext cx="6114600" cy="3790440"/>
+          <a:off x="11163960" y="7353360"/>
+          <a:ext cx="6113880" cy="3790080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,15 +895,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>228960</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>349920</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:colOff>349560</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -902,8 +916,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11163600" y="4248000"/>
-          <a:ext cx="6229080" cy="2676240"/>
+          <a:off x="11163960" y="4448160"/>
+          <a:ext cx="6228360" cy="2675880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -923,10 +937,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z232"/>
+  <dimension ref="A1:Z239"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D220" activeCellId="0" sqref="D220"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A93" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B169" activeCellId="0" sqref="B169:D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1343,6 +1357,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="6" t="n">
+        <f aca="false">1.5827</f>
         <v>1.5827</v>
       </c>
       <c r="C13" s="6" t="n">
@@ -1385,26 +1400,27 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="6" t="n">
-        <v>0.26788</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+        <f aca="false">B13+B11</f>
+        <v>-0.4173</v>
+      </c>
+      <c r="C14" s="6" t="n">
+        <f aca="false">C13+C11</f>
+        <v>-9.9999999999989E-005</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <f aca="false">D13+D11</f>
+        <v>0.0175000000000001</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1421,33 +1437,25 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="n">
+        <v>0.26788</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="2"/>
       <c r="I15" s="9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1465,30 +1473,34 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="12" t="n">
-        <v>0.0104</v>
-      </c>
-      <c r="C16" s="13" t="n">
-        <v>-3.88857E-005</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>-0.000286457</v>
-      </c>
-      <c r="E16" s="12" t="n">
-        <v>0.0132</v>
-      </c>
-      <c r="F16" s="13" t="n">
-        <v>2.61883E-006</v>
-      </c>
-      <c r="G16" s="12" t="n">
-        <v>0.0233</v>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -1506,22 +1518,29 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="B17" s="12" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>-3.88857E-005</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>-0.000286457</v>
+      </c>
+      <c r="E17" s="12" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>2.61883E-006</v>
+      </c>
+      <c r="G17" s="12" t="n">
+        <v>0.0233</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1539,18 +1558,18 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1572,10 +1591,10 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>0.001</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="2"/>
@@ -1583,7 +1602,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1604,15 +1623,20 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="9"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1632,22 +1656,15 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1667,27 +1684,22 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1707,29 +1719,31 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7" t="n">
-        <v>0</v>
+      <c r="A23" s="5"/>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H23" s="2"/>
-      <c r="M23" s="9"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -1746,7 +1760,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>0</v>
@@ -1784,7 +1798,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>0</v>
@@ -1822,16 +1836,26 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="C26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="M26" s="9"/>
       <c r="N26" s="2"/>
@@ -1849,25 +1873,17 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="2"/>
       <c r="M27" s="9"/>
       <c r="N27" s="2"/>
@@ -1885,29 +1901,27 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="13" t="n">
-        <v>0</v>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="M28" s="9"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -1924,21 +1938,27 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="B29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1956,10 +1976,10 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="7" t="n">
-        <v>0.01</v>
+        <v>35</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1988,10 +2008,10 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="B31" s="7" t="n">
+        <v>0.01</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2020,10 +2040,10 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2052,7 +2072,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7" t="n">
         <v>0</v>
@@ -2083,13 +2103,17 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2111,22 +2135,15 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -2146,27 +2163,22 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5"/>
-      <c r="B36" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2186,26 +2198,24 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7" t="n">
-        <v>0</v>
+      <c r="A37" s="5"/>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -2229,7 +2239,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B38" s="7" t="n">
         <v>0</v>
@@ -2271,7 +2281,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" s="7" t="n">
         <v>0</v>
@@ -2313,16 +2323,26 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B40" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="C40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -2344,25 +2364,17 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -2384,26 +2396,24 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="13" t="n">
-        <v>0</v>
+      <c r="A42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -2427,16 +2437,26 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="B43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -2459,10 +2479,10 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="7" t="n">
-        <v>0.01</v>
+        <v>35</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -2491,10 +2511,10 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="B45" s="7" t="n">
+        <v>0.01</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -2523,10 +2543,10 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -2555,7 +2575,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="7" t="n">
         <v>0</v>
@@ -2586,13 +2606,17 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -2614,22 +2638,15 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>45</v>
-      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -2649,25 +2666,26 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5"/>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -2683,26 +2701,24 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7" t="n">
-        <v>0</v>
+      <c r="A51" s="5"/>
+      <c r="B51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -2720,7 +2736,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B52" s="7" t="n">
         <v>0</v>
@@ -2756,7 +2772,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B53" s="7" t="n">
         <v>0</v>
@@ -2792,16 +2808,26 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B54" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="C54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -2817,25 +2843,17 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -2851,29 +2869,24 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="18" t="s">
-        <v>54</v>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -2891,18 +2904,28 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="B57" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -2920,17 +2943,19 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="7" t="n">
-        <v>0.01</v>
+        <v>35</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="17"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="K58" s="19"/>
+      <c r="K58" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -2947,16 +2972,17 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
+      </c>
+      <c r="B59" s="7" t="n">
+        <v>0.01</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="17"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
+      <c r="K59" s="19"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -2973,10 +2999,10 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="7" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2999,7 +3025,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="7" t="n">
         <v>0</v>
@@ -3024,6 +3050,17 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -3039,22 +3076,6 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="9" t="s">
-        <v>46</v>
-      </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -3070,26 +3091,22 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5"/>
-      <c r="B64" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
+      <c r="I64" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -3105,26 +3122,24 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C65" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D65" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E65" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="7" t="n">
-        <v>0</v>
+      <c r="A65" s="5"/>
+      <c r="B65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H65" s="2"/>
       <c r="N65" s="2"/>
@@ -3143,16 +3158,16 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C66" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" s="7" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C66" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>-2</v>
       </c>
       <c r="E66" s="7" t="n">
         <v>0</v>
@@ -3179,17 +3194,17 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B67" s="6" t="n">
-        <v>1.047216476</v>
-      </c>
-      <c r="C67" s="6" t="n">
-        <v>2.00256</v>
-      </c>
-      <c r="D67" s="6" t="n">
-        <v>2.097964074</v>
+      <c r="A67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="E67" s="7" t="n">
         <v>0</v>
@@ -3216,17 +3231,17 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
-        <v>20</v>
+      <c r="A68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="B68" s="6" t="n">
-        <v>1.027828115</v>
+        <v>1.047216476</v>
       </c>
       <c r="C68" s="6" t="n">
-        <v>2.00401829</v>
+        <v>2.00256</v>
       </c>
       <c r="D68" s="6" t="n">
-        <v>2.079768707</v>
+        <v>2.097964074</v>
       </c>
       <c r="E68" s="7" t="n">
         <v>0</v>
@@ -3253,23 +3268,23 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A69" s="11"/>
       <c r="B69" s="6" t="n">
-        <v>0.003227</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
+        <f aca="false">B68+B66</f>
+        <v>-0.952783524</v>
+      </c>
+      <c r="C69" s="6" t="n">
+        <f aca="false">C68+C66</f>
+        <v>0.0025599999999999</v>
+      </c>
+      <c r="D69" s="6" t="n">
+        <f aca="false">D68+D66</f>
+        <v>0.0979640740000001</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -3285,31 +3300,28 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>31</v>
+      <c r="A70" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>1.027828115</v>
+      </c>
+      <c r="C70" s="6" t="n">
+        <v>2.00401829</v>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>2.079768707</v>
+      </c>
+      <c r="E70" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -3325,33 +3337,23 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71" s="12" t="n">
-        <v>3.88E-006</v>
-      </c>
-      <c r="C71" s="13" t="n">
-        <v>2.13909E-007</v>
-      </c>
-      <c r="D71" s="13" t="n">
-        <v>-1.20525E-006</v>
-      </c>
-      <c r="E71" s="12" t="n">
-        <v>5.04E-006</v>
-      </c>
-      <c r="F71" s="13" t="n">
-        <v>-3.87574E-007</v>
-      </c>
-      <c r="G71" s="12" t="n">
-        <v>1.33E-006</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="6" t="n">
+        <f aca="false">B70+B66</f>
+        <v>-0.972171885</v>
+      </c>
+      <c r="C71" s="6" t="n">
+        <f aca="false">C70+C66</f>
+        <v>0.00401828999999987</v>
+      </c>
+      <c r="D71" s="6" t="n">
+        <f aca="false">D70+D66</f>
+        <v>0.0797687069999999</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -3368,14 +3370,14 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>59</v>
+        <v>23</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>0.003227</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="17"/>
+      <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="2"/>
@@ -3399,17 +3401,25 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -3432,16 +3442,26 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="7" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="B74" s="12" t="n">
+        <v>3.88E-006</v>
+      </c>
+      <c r="C74" s="13" t="n">
+        <v>2.13909E-007</v>
+      </c>
+      <c r="D74" s="13" t="n">
+        <v>-1.20525E-006</v>
+      </c>
+      <c r="E74" s="12" t="n">
+        <v>5.04E-006</v>
+      </c>
+      <c r="F74" s="13" t="n">
+        <v>-3.87574E-007</v>
+      </c>
+      <c r="G74" s="12" t="n">
+        <v>1.33E-006</v>
+      </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -3464,14 +3484,14 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="7" t="n">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="B75" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
+      <c r="E75" s="17"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="2"/>
@@ -3496,14 +3516,14 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="B76" s="7" t="n">
+        <v>0.001</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
+      <c r="E76" s="17"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="2"/>
@@ -3527,6 +3547,18 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="7" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
@@ -3547,21 +3579,19 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="I78" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="A78" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -3581,25 +3611,18 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5"/>
-      <c r="B79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -3620,27 +3643,6 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C80" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D80" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E80" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="7" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -3661,28 +3663,21 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" s="2"/>
+      <c r="A81" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="I81" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
@@ -3702,27 +3697,27 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B82" s="6" t="n">
-        <v>1.030240751</v>
-      </c>
-      <c r="C82" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D82" s="6" t="n">
-        <v>2.043036169</v>
-      </c>
-      <c r="E82" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A82" s="5"/>
+      <c r="B82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -3742,16 +3737,16 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B83" s="6" t="n">
-        <v>1.009701322</v>
+        <v>-2</v>
       </c>
       <c r="C83" s="6" t="n">
-        <v>1.999667269</v>
+        <v>-2</v>
       </c>
       <c r="D83" s="6" t="n">
-        <v>2.039334692</v>
+        <v>-2</v>
       </c>
       <c r="E83" s="7" t="n">
         <v>0</v>
@@ -3762,6 +3757,8 @@
       <c r="G83" s="7" t="n">
         <v>0</v>
       </c>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -3781,16 +3778,28 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="6" t="n">
-        <v>0.006919999</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -3809,25 +3818,28 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="A85" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B85" s="6" t="n">
+        <v>1.030240751</v>
+      </c>
+      <c r="C85" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D85" s="6" t="n">
+        <v>2.043036169</v>
+      </c>
+      <c r="E85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -3845,27 +3857,23 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" s="12" t="n">
-        <v>7.37E-005</v>
-      </c>
-      <c r="C86" s="13" t="n">
-        <v>-4.57134E-008</v>
-      </c>
-      <c r="D86" s="13" t="n">
-        <v>-3.07034E-007</v>
-      </c>
-      <c r="E86" s="12" t="n">
-        <v>1.87E-006</v>
-      </c>
-      <c r="F86" s="13" t="n">
-        <v>2.15816E-008</v>
-      </c>
-      <c r="G86" s="12" t="n">
-        <v>7.53E-005</v>
-      </c>
+      <c r="A86" s="21"/>
+      <c r="B86" s="6" t="n">
+        <f aca="false">B85+B83</f>
+        <v>-0.969759249</v>
+      </c>
+      <c r="C86" s="6" t="n">
+        <f aca="false">C85+C83</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="6" t="n">
+        <f aca="false">D85+D83</f>
+        <v>0.0430361690000001</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -3884,16 +3892,27 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B87" s="6" t="n">
+        <v>1.009701322</v>
+      </c>
+      <c r="C87" s="6" t="n">
+        <v>1.999667269</v>
+      </c>
+      <c r="D87" s="6" t="n">
+        <v>2.039334692</v>
+      </c>
+      <c r="E87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -3911,17 +3930,23 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="6" t="n">
+        <f aca="false">B87+B83</f>
+        <v>-0.990298678</v>
+      </c>
+      <c r="C88" s="6" t="n">
+        <f aca="false">C87+C83</f>
+        <v>-0.000332730999999864</v>
+      </c>
+      <c r="D88" s="6" t="n">
+        <f aca="false">D87+D83</f>
+        <v>0.0393346920000002</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -3940,16 +3965,17 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B89" s="7" t="n">
-        <v>-20</v>
+        <v>23</v>
+      </c>
+      <c r="B89" s="6" t="n">
+        <v>0.006919999</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
+      <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -3967,17 +3993,25 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B90" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -3995,17 +4029,27 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="12" t="n">
+        <v>7.37E-005</v>
+      </c>
+      <c r="C91" s="13" t="n">
+        <v>-4.57134E-008</v>
+      </c>
+      <c r="D91" s="13" t="n">
+        <v>-3.07034E-007</v>
+      </c>
+      <c r="E91" s="12" t="n">
+        <v>1.87E-006</v>
+      </c>
+      <c r="F91" s="13" t="n">
+        <v>2.15816E-008</v>
+      </c>
+      <c r="G91" s="12" t="n">
+        <v>7.53E-005</v>
+      </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -4023,6 +4067,17 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -4040,21 +4095,17 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="I93" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -4072,25 +4123,17 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5"/>
-      <c r="B94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A94" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="7" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -4109,26 +4152,16 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C95" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D95" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E95" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" s="7" t="n">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B95" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -4146,27 +4179,17 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A96" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -4184,27 +4207,6 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" s="6" t="n">
-        <v>1.441075555</v>
-      </c>
-      <c r="C97" s="6" t="n">
-        <v>2.3275</v>
-      </c>
-      <c r="D97" s="6" t="n">
-        <v>2.005096429</v>
-      </c>
-      <c r="E97" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" s="7" t="n">
-        <v>0</v>
-      </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -4222,26 +4224,20 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="6" t="n">
-        <v>1.412856356</v>
-      </c>
-      <c r="C98" s="6" t="n">
-        <v>2.305006293</v>
-      </c>
-      <c r="D98" s="6" t="n">
-        <v>1.995349596</v>
-      </c>
-      <c r="E98" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G98" s="7" t="n">
-        <v>0</v>
+      <c r="A98" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="I98" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -4260,17 +4256,25 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" s="6" t="n">
-        <v>0.007988119</v>
-      </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -4288,24 +4292,26 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>31</v>
+      <c r="A100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C100" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D100" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -4325,25 +4331,25 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" s="12" t="n">
-        <v>8.3E-005</v>
-      </c>
-      <c r="C101" s="13" t="n">
-        <v>-4.78186E-006</v>
-      </c>
-      <c r="D101" s="13" t="n">
-        <v>3.72772E-007</v>
-      </c>
-      <c r="E101" s="12" t="n">
-        <v>3.95E-006</v>
-      </c>
-      <c r="F101" s="13" t="n">
-        <v>4.7173E-007</v>
-      </c>
-      <c r="G101" s="12" t="n">
-        <v>8.67E-005</v>
+        <v>17</v>
+      </c>
+      <c r="B101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -4362,17 +4368,27 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
+      <c r="A102" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" s="6" t="n">
+        <v>1.441075555</v>
+      </c>
+      <c r="C102" s="6" t="n">
+        <v>2.3275</v>
+      </c>
+      <c r="D102" s="6" t="n">
+        <v>2.005096429</v>
+      </c>
+      <c r="E102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -4390,17 +4406,22 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B103" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="6" t="n">
+        <f aca="false">B102+B100</f>
+        <v>-0.558924445</v>
+      </c>
+      <c r="C103" s="6" t="n">
+        <f aca="false">C102+C100</f>
+        <v>0.3275</v>
+      </c>
+      <c r="D103" s="6" t="n">
+        <f aca="false">D102+D100</f>
+        <v>0.00509642899999996</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -4419,16 +4440,26 @@
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B104" s="7" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B104" s="6" t="n">
+        <v>1.412856356</v>
+      </c>
+      <c r="C104" s="6" t="n">
+        <v>2.305006293</v>
+      </c>
+      <c r="D104" s="6" t="n">
+        <v>1.995349596</v>
+      </c>
+      <c r="E104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -4446,17 +4477,22 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B105" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="6" t="n">
+        <f aca="false">B104+B100</f>
+        <v>-0.587143644</v>
+      </c>
+      <c r="C105" s="6" t="n">
+        <f aca="false">C104+C100</f>
+        <v>0.305006293</v>
+      </c>
+      <c r="D105" s="6" t="n">
+        <f aca="false">D104+D100</f>
+        <v>-0.00465040399999994</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -4474,17 +4510,17 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
+      <c r="A106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" s="6" t="n">
+        <v>0.007988119</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -4502,6 +4538,25 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -4519,20 +4574,26 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="I108" s="9" t="s">
-        <v>46</v>
+      <c r="A108" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B108" s="12" t="n">
+        <v>8.3E-005</v>
+      </c>
+      <c r="C108" s="13" t="n">
+        <v>-4.78186E-006</v>
+      </c>
+      <c r="D108" s="13" t="n">
+        <v>3.72772E-007</v>
+      </c>
+      <c r="E108" s="12" t="n">
+        <v>3.95E-006</v>
+      </c>
+      <c r="F108" s="13" t="n">
+        <v>4.7173E-007</v>
+      </c>
+      <c r="G108" s="12" t="n">
+        <v>8.67E-005</v>
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
@@ -4551,25 +4612,17 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5"/>
-      <c r="B109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -4588,26 +4641,18 @@
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="C110" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D110" s="6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E110" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" s="7" t="n">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B110" s="7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -4624,26 +4669,18 @@
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B111" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" s="7" t="n">
-        <v>0</v>
-      </c>
+        <v>-20</v>
+      </c>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -4659,27 +4696,19 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B112" s="6" t="n">
-        <v>1.441075555</v>
-      </c>
-      <c r="C112" s="6" t="n">
-        <v>1.6725</v>
-      </c>
-      <c r="D112" s="6" t="n">
-        <v>2.005096429</v>
-      </c>
-      <c r="E112" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A112" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -4695,27 +4724,19 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B113" s="6" t="n">
-        <v>1.412856356</v>
-      </c>
-      <c r="C113" s="6" t="n">
-        <v>1.694993707</v>
-      </c>
-      <c r="D113" s="6" t="n">
-        <v>1.995349596</v>
-      </c>
-      <c r="E113" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="A113" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -4731,17 +4752,8 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="6" t="n">
-        <v>0.007988119</v>
-      </c>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -4757,25 +4769,23 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A115" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D115" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="I115" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -4791,27 +4801,27 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B116" s="12" t="n">
-        <v>8.3E-005</v>
-      </c>
-      <c r="C116" s="13" t="n">
-        <v>4.78186E-006</v>
-      </c>
-      <c r="D116" s="13" t="n">
-        <v>3.72772E-007</v>
-      </c>
-      <c r="E116" s="12" t="n">
-        <v>3.95E-006</v>
-      </c>
-      <c r="F116" s="13" t="n">
-        <v>-4.7173E-007</v>
-      </c>
-      <c r="G116" s="12" t="n">
-        <v>8.67E-005</v>
-      </c>
+      <c r="A116" s="5"/>
+      <c r="B116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -4828,16 +4838,26 @@
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="B117" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C117" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D117" s="6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E117" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -4854,16 +4874,26 @@
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B118" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="C118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -4879,17 +4909,27 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B119" s="7" t="n">
-        <v>-20</v>
-      </c>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
+      <c r="A119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119" s="6" t="n">
+        <v>1.441075555</v>
+      </c>
+      <c r="C119" s="6" t="n">
+        <v>1.6725</v>
+      </c>
+      <c r="D119" s="6" t="n">
+        <v>2.005096429</v>
+      </c>
+      <c r="E119" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -4906,16 +4946,26 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B120" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
+      <c r="B120" s="6" t="n">
+        <v>1.412856356</v>
+      </c>
+      <c r="C120" s="6" t="n">
+        <v>1.694993707</v>
+      </c>
+      <c r="D120" s="6" t="n">
+        <v>1.995349596</v>
+      </c>
+      <c r="E120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -4931,20 +4981,17 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="22"/>
-      <c r="I121" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="A121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" s="6" t="n">
+        <v>0.007988119</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -4960,6 +5007,25 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -4975,14 +5041,27 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J123" s="10"/>
-      <c r="K123" s="2"/>
+      <c r="A123" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B123" s="12" t="n">
+        <v>8.3E-005</v>
+      </c>
+      <c r="C123" s="13" t="n">
+        <v>4.78186E-006</v>
+      </c>
+      <c r="D123" s="13" t="n">
+        <v>3.72772E-007</v>
+      </c>
+      <c r="E123" s="12" t="n">
+        <v>3.95E-006</v>
+      </c>
+      <c r="F123" s="13" t="n">
+        <v>-4.7173E-007</v>
+      </c>
+      <c r="G123" s="12" t="n">
+        <v>8.67E-005</v>
+      </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -4999,22 +5078,16 @@
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B124" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J124" s="9"/>
-      <c r="K124" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -5031,22 +5104,16 @@
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B125" s="24" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="J125" s="9"/>
-      <c r="K125" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B125" s="7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -5063,22 +5130,16 @@
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B126" s="25" t="n">
-        <v>0.5053</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J126" s="9"/>
-      <c r="K126" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="B126" s="7" t="n">
+        <v>-20</v>
+      </c>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -5095,22 +5156,16 @@
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B127" s="24" t="n">
-        <v>-0.1017</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J127" s="9"/>
-      <c r="K127" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="B127" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -5126,23 +5181,20 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B128" s="24" t="n">
-        <v>0.1832</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J128" s="9"/>
-      <c r="K128" s="2"/>
+      <c r="A128" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="22"/>
+      <c r="I128" s="10" t="s">
+        <v>69</v>
+      </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -5158,23 +5210,6 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B129" s="24" t="n">
-        <v>-3.85</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="J129" s="9"/>
-      <c r="K129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -5190,22 +5225,13 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B130" s="26" t="n">
-        <v>0.856</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
+      <c r="A130" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I130" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J130" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="J130" s="10"/>
       <c r="K130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -5223,7 +5249,7 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B131" s="23" t="n">
         <v>0</v>
@@ -5235,7 +5261,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="J131" s="9"/>
       <c r="K131" s="2"/>
@@ -5255,23 +5281,19 @@
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B132" s="27" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="C132" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" s="23" t="n">
-        <v>0.05</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B132" s="24" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J132" s="9"/>
       <c r="K132" s="2"/>
@@ -5291,10 +5313,10 @@
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B133" s="24" t="n">
-        <v>0.01855</v>
+        <v>76</v>
+      </c>
+      <c r="B133" s="25" t="n">
+        <v>0.5053</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5303,7 +5325,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="9" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J133" s="9"/>
       <c r="K133" s="2"/>
@@ -5323,23 +5345,19 @@
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B134" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C134" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D134" s="14" t="n">
-        <v>0</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B134" s="24" t="n">
+        <v>-0.1017</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="9" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J134" s="9"/>
       <c r="K134" s="2"/>
@@ -5359,23 +5377,19 @@
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B135" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C135" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" s="14" t="n">
-        <v>0</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B135" s="24" t="n">
+        <v>0.1832</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="9" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="J135" s="9"/>
       <c r="K135" s="2"/>
@@ -5395,10 +5409,10 @@
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B136" s="23" t="n">
-        <v>4</v>
+        <v>82</v>
+      </c>
+      <c r="B136" s="24" t="n">
+        <v>-3.85</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5407,7 +5421,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="J136" s="9"/>
       <c r="K136" s="2"/>
@@ -5426,15 +5440,21 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
+      <c r="A137" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B137" s="26" t="n">
+        <v>0.856</v>
+      </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
-      <c r="I137" s="9"/>
+      <c r="I137" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="J137" s="9"/>
       <c r="K137" s="2"/>
       <c r="N137" s="2"/>
@@ -5452,11 +5472,20 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="A138" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
       <c r="I138" s="9" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J138" s="9"/>
       <c r="K138" s="2"/>
@@ -5476,19 +5505,25 @@
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B139" s="28" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B139" s="27" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="C139" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" s="23" t="n">
+        <v>0.05</v>
+      </c>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
+      <c r="I139" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J139" s="9"/>
       <c r="K139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -5506,10 +5541,10 @@
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140" s="28" t="n">
-        <v>3.09</v>
+        <v>90</v>
+      </c>
+      <c r="B140" s="24" t="n">
+        <v>0.01855</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5517,8 +5552,10 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
+      <c r="I140" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J140" s="9"/>
       <c r="K140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -5536,19 +5573,25 @@
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B141" s="26" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="B141" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
+      <c r="I141" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J141" s="9"/>
       <c r="K141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -5566,19 +5609,25 @@
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B142" s="28" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B142" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
+      <c r="I142" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J142" s="9"/>
       <c r="K142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -5596,10 +5645,10 @@
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B143" s="28" t="n">
-        <v>0.12</v>
+        <v>96</v>
+      </c>
+      <c r="B143" s="23" t="n">
+        <v>4</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -5607,7 +5656,11 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
+      <c r="I143" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J143" s="9"/>
+      <c r="K143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -5623,21 +5676,17 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B144" s="28" t="n">
-        <v>-3.03</v>
-      </c>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -5653,21 +5702,14 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B145" s="26" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
+      <c r="A145" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I145" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J145" s="9"/>
+      <c r="K145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -5684,10 +5726,10 @@
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B146" s="23" t="n">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="B146" s="28" t="n">
+        <v>0.035</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5696,8 +5738,8 @@
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
@@ -5714,24 +5756,20 @@
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B147" s="28" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="C147" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D147" s="28" t="n">
-        <v>0.04</v>
-      </c>
+        <v>3.09</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
-      <c r="I147" s="9"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -5748,10 +5786,10 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B148" s="28" t="n">
-        <v>0.06</v>
+        <v>76</v>
+      </c>
+      <c r="B148" s="26" t="n">
+        <v>0.52</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5760,8 +5798,8 @@
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -5778,24 +5816,20 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B149" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C149" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D149" s="14" t="n">
-        <v>0</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B149" s="28" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
-      <c r="I149" s="9"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -5812,24 +5846,18 @@
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B150" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C150" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D150" s="23" t="n">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B150" s="28" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -5846,10 +5874,10 @@
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B151" s="23" t="n">
-        <v>-4</v>
+        <v>82</v>
+      </c>
+      <c r="B151" s="28" t="n">
+        <v>-3.03</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5857,7 +5885,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
-      <c r="I151" s="9"/>
+      <c r="I151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -5875,6 +5903,19 @@
       <c r="Z151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B152" s="26" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
@@ -5892,13 +5933,19 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I153" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J153" s="2"/>
+      <c r="A153" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B153" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -5917,20 +5964,22 @@
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B154" s="28" t="n">
-        <v>-0.07029</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+        <v>0.89</v>
+      </c>
+      <c r="C154" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" s="28" t="n">
+        <v>0.04</v>
+      </c>
       <c r="E154" s="2"/>
-      <c r="F154" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
-      <c r="J154" s="2"/>
+      <c r="I154" s="9"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
@@ -5949,20 +5998,18 @@
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B155" s="28" t="n">
-        <v>4.380782</v>
+        <v>0.06</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
-      <c r="J155" s="2"/>
+      <c r="I155" s="2"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
@@ -5981,20 +6028,22 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B156" s="26" t="n">
-        <v>0.432217</v>
-      </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="B156" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="E156" s="2"/>
-      <c r="F156" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
-      <c r="J156" s="2"/>
+      <c r="I156" s="9"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
@@ -6013,20 +6062,22 @@
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B157" s="28" t="n">
-        <v>-1.10842</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B157" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="E157" s="2"/>
-      <c r="F157" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
-      <c r="J157" s="2"/>
+      <c r="I157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
@@ -6045,19 +6096,18 @@
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B158" s="28" t="n">
-        <v>0.15708</v>
+        <v>96</v>
+      </c>
+      <c r="B158" s="23" t="n">
+        <v>-4</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
-      <c r="F158" s="9" t="s">
-        <v>81</v>
-      </c>
+      <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
+      <c r="I158" s="9"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
@@ -6075,20 +6125,6 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B159" s="28" t="n">
-        <v>-3.919031</v>
-      </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
@@ -6106,20 +6142,13 @@
       <c r="Z159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B160" s="26" t="n">
-        <v>1.335374</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
+      <c r="A160" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I160" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -6138,19 +6167,20 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B161" s="28" t="n">
-        <v>-0.427808</v>
+        <v>-0.07029</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
+      <c r="J161" s="2"/>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -6169,23 +6199,20 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B162" s="26" t="n">
-        <v>0.119883</v>
-      </c>
-      <c r="C162" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D162" s="26" t="n">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B162" s="28" t="n">
+        <v>4.380782</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
+      <c r="J162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
@@ -6204,19 +6231,20 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B163" s="28" t="n">
-        <v>0.1595</v>
+        <v>76</v>
+      </c>
+      <c r="B163" s="26" t="n">
+        <v>0.432217</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="9" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
+      <c r="J163" s="2"/>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -6235,23 +6263,20 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B164" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D164" s="14" t="n">
-        <v>0</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B164" s="28" t="n">
+        <v>-1.10842</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="9" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
+      <c r="J164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
@@ -6270,20 +6295,16 @@
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B165" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C165" s="28" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="D165" s="28" t="n">
-        <v>0.997</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B165" s="28" t="n">
+        <v>0.15708</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="9" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
@@ -6305,16 +6326,16 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B166" s="28" t="n">
-        <v>-3.61651</v>
+        <v>-3.919031</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="9" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
@@ -6335,6 +6356,20 @@
       <c r="Z166" s="2"/>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B167" s="26" t="n">
+        <v>1.335374</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
@@ -6352,13 +6387,20 @@
       <c r="Z167" s="2"/>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I168" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J168" s="2"/>
+      <c r="A168" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B168" s="28" t="n">
+        <v>-0.427808</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
@@ -6377,20 +6419,23 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B169" s="23" t="n">
-        <f aca="false">B154</f>
-        <v>-0.07029</v>
-      </c>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="B169" s="29" t="n">
+        <v>0.119883</v>
+      </c>
+      <c r="C169" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" s="29" t="n">
+        <v>0</v>
+      </c>
       <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
+      <c r="F169" s="9" t="s">
+        <v>89</v>
+      </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
@@ -6409,20 +6454,19 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B170" s="23" t="n">
-        <f aca="false">B155</f>
-        <v>4.380782</v>
+        <v>90</v>
+      </c>
+      <c r="B170" s="28" t="n">
+        <v>0.1595</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
+      <c r="F170" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
@@ -6441,20 +6485,23 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B171" s="14" t="n">
-        <f aca="false">B156</f>
-        <v>0.432217</v>
-      </c>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="B171" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
+      <c r="F171" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
@@ -6473,20 +6520,23 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B172" s="23" t="n">
-        <f aca="false">B157</f>
-        <v>-1.10842</v>
-      </c>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B172" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" s="28" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="D172" s="28" t="n">
+        <v>0.997</v>
+      </c>
       <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
+      <c r="F172" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2"/>
@@ -6505,19 +6555,19 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B173" s="23" t="n">
-        <f aca="false">B158</f>
-        <v>0.15708</v>
+        <v>96</v>
+      </c>
+      <c r="B173" s="28" t="n">
+        <v>-3.61651</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
+      <c r="F173" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2"/>
@@ -6535,20 +6585,6 @@
       <c r="Z173" s="2"/>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B174" s="23" t="n">
-        <f aca="false">B159</f>
-        <v>-3.919031</v>
-      </c>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2"/>
@@ -6566,20 +6602,13 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B175" s="14" t="n">
-        <f aca="false">B160</f>
-        <v>1.335374</v>
-      </c>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
+      <c r="A175" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I175" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J175" s="2"/>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2"/>
@@ -6598,11 +6627,11 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B176" s="23" t="n">
         <f aca="false">B161</f>
-        <v>-0.427808</v>
+        <v>-0.07029</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -6611,6 +6640,7 @@
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2"/>
@@ -6629,23 +6659,20 @@
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B177" s="14" t="n">
+        <v>74</v>
+      </c>
+      <c r="B177" s="23" t="n">
         <f aca="false">B162</f>
-        <v>0.119883</v>
-      </c>
-      <c r="C177" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" s="26" t="n">
-        <v>0</v>
-      </c>
+        <v>4.380782</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
-      <c r="I177" s="9"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2"/>
@@ -6664,11 +6691,11 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B178" s="23" t="n">
+        <v>76</v>
+      </c>
+      <c r="B178" s="14" t="n">
         <f aca="false">B163</f>
-        <v>0.1595</v>
+        <v>0.432217</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -6677,6 +6704,7 @@
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2"/>
@@ -6695,22 +6723,20 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B179" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C179" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" s="14" t="n">
-        <v>0</v>
-      </c>
+        <f aca="false">B164</f>
+        <v>-1.10842</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
-      <c r="I179" s="9"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2"/>
@@ -6729,24 +6755,19 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B180" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C180" s="23" t="n">
-        <f aca="false">C165*-1</f>
-        <v>0.024</v>
-      </c>
-      <c r="D180" s="23" t="n">
-        <f aca="false">D165</f>
-        <v>0.997</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B180" s="23" t="n">
+        <f aca="false">B165</f>
+        <v>0.15708</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
-      <c r="I180" s="9"/>
+      <c r="I180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2"/>
@@ -6765,11 +6786,11 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B181" s="23" t="n">
         <f aca="false">B166</f>
-        <v>-3.61651</v>
+        <v>-3.919031</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -6777,9 +6798,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
-      <c r="I181" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="I181" s="2"/>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2"/>
@@ -6797,6 +6816,20 @@
       <c r="Z181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B182" s="14" t="n">
+        <f aca="false">B167</f>
+        <v>1.335374</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -6814,9 +6847,20 @@
       <c r="Z182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="A183" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B183" s="23" t="n">
+        <f aca="false">B168</f>
+        <v>-0.427808</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -6834,25 +6878,24 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="5"/>
-      <c r="B184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A184" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B184" s="30" t="n">
+        <f aca="false">B169</f>
+        <v>0.119883</v>
+      </c>
+      <c r="C184" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="9"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2"/>
@@ -6871,29 +6914,19 @@
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B185" s="26" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="C185" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" s="26" t="n">
-        <v>-0.019</v>
-      </c>
-      <c r="E185" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" s="9" t="s">
-        <v>104</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B185" s="23" t="n">
+        <f aca="false">B170</f>
+        <v>0.1595</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
       <c r="N185" s="2"/>
@@ -6912,10 +6945,10 @@
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B186" s="14" t="n">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="B186" s="23" t="n">
+        <v>1</v>
       </c>
       <c r="C186" s="14" t="n">
         <v>0</v>
@@ -6923,15 +6956,11 @@
       <c r="D186" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E186" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="9"/>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
       <c r="N186" s="2"/>
@@ -6950,26 +6979,24 @@
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="C187" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" s="14" t="n">
-        <v>0</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B187" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" s="23" t="n">
+        <f aca="false">C172*-1</f>
+        <v>0.024</v>
+      </c>
+      <c r="D187" s="23" t="n">
+        <f aca="false">D172</f>
+        <v>0.997</v>
+      </c>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="9"/>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
       <c r="N187" s="2"/>
@@ -6988,16 +7015,21 @@
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B188" s="26" t="n">
-        <v>0.006</v>
+        <v>96</v>
+      </c>
+      <c r="B188" s="23" t="n">
+        <f aca="false">B173</f>
+        <v>-3.61651</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2"/>
@@ -7015,28 +7047,6 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F189" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G189" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I189" s="9"/>
-      <c r="J189" s="2"/>
-      <c r="K189" s="2"/>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
       <c r="N189" s="2"/>
@@ -7054,29 +7064,9 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B190" s="30" t="n">
-        <v>7.52E-006</v>
-      </c>
-      <c r="C190" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" s="30" t="n">
-        <v>7.52E-006</v>
-      </c>
-      <c r="F190" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" s="30" t="n">
-        <v>3E-007</v>
-      </c>
-      <c r="J190" s="2"/>
-      <c r="K190" s="2"/>
+      <c r="A190" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
       <c r="N190" s="2"/>
@@ -7094,19 +7084,25 @@
       <c r="Z190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B191" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
-      <c r="J191" s="2"/>
-      <c r="K191" s="2"/>
+      <c r="A191" s="5"/>
+      <c r="B191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
       <c r="N191" s="2"/>
@@ -7125,18 +7121,29 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B192" s="14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
-      <c r="J192" s="2"/>
-      <c r="K192" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B192" s="26" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="C192" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" s="26" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="E192" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" s="9" t="s">
+        <v>104</v>
+      </c>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
       <c r="N192" s="2"/>
@@ -7154,14 +7161,27 @@
       <c r="Z192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B193" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
+      <c r="A193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
       <c r="N193" s="2"/>
@@ -7179,14 +7199,27 @@
       <c r="Z193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B194" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J194" s="2"/>
-      <c r="K194" s="2"/>
+      <c r="A194" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B194" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
       <c r="N194" s="2"/>
@@ -7204,17 +7237,17 @@
       <c r="Z194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="18" t="s">
-        <v>108</v>
+      <c r="A195" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B195" s="26" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="I195" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="J195" s="2"/>
-      <c r="K195" s="2"/>
+        <v>0.006</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
       <c r="L195" s="2"/>
       <c r="M195" s="2"/>
       <c r="N195" s="2"/>
@@ -7232,27 +7265,26 @@
       <c r="Z195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B196" s="26" t="n">
-        <v>0.1189</v>
-      </c>
-      <c r="C196" s="26" t="n">
-        <v>0.0006</v>
-      </c>
-      <c r="D196" s="26" t="n">
-        <v>0.1167</v>
-      </c>
-      <c r="E196" s="26" t="n">
-        <v>-0.4054</v>
-      </c>
-      <c r="F196" s="26" t="n">
-        <v>0.1949</v>
-      </c>
-      <c r="I196" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I196" s="9"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
@@ -7272,26 +7304,26 @@
       <c r="Z196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B197" s="26" t="n">
-        <v>0.1285</v>
-      </c>
-      <c r="C197" s="26" t="n">
-        <v>-0.3526</v>
-      </c>
-      <c r="D197" s="26" t="n">
-        <v>0.1677</v>
-      </c>
-      <c r="E197" s="26" t="n">
-        <v>0.0228</v>
-      </c>
-      <c r="F197" s="26" t="n">
-        <v>0.1285</v>
-      </c>
-      <c r="I197" s="10" t="s">
-        <v>113</v>
+      <c r="A197" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B197" s="32" t="n">
+        <v>7.52E-006</v>
+      </c>
+      <c r="C197" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="32" t="n">
+        <v>7.52E-006</v>
+      </c>
+      <c r="F197" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" s="32" t="n">
+        <v>3E-007</v>
       </c>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
@@ -7312,12 +7344,17 @@
       <c r="Z197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C198" s="2"/>
       <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
+      <c r="E198" s="5"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
-      <c r="H198" s="2"/>
-      <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
@@ -7337,21 +7374,18 @@
       <c r="Z198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D199" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="A199" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B199" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="5"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="J199" s="2"/>
       <c r="K199" s="2"/>
       <c r="L199" s="2"/>
       <c r="M199" s="2"/>
@@ -7370,25 +7404,13 @@
       <c r="Z199" s="2"/>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="5"/>
-      <c r="B200" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A200" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="J200" s="2"/>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2"/>
@@ -7407,28 +7429,13 @@
       <c r="Z200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
-        <v>14</v>
+      <c r="A201" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="B201" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C201" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F201" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G201" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="J201" s="2"/>
       <c r="K201" s="2"/>
       <c r="L201" s="2"/>
       <c r="M201" s="2"/>
@@ -7447,28 +7454,16 @@
       <c r="Z201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B202" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C202" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D202" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F202" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" s="9"/>
+      <c r="A202" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B202" s="26" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I202" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J202" s="2"/>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
       <c r="M202" s="2"/>
@@ -7487,27 +7482,28 @@
       <c r="Z202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B203" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C203" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D203" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F203" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="A203" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B203" s="26" t="n">
+        <v>0.1189</v>
+      </c>
+      <c r="C203" s="26" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="D203" s="26" t="n">
+        <v>0.1167</v>
+      </c>
+      <c r="E203" s="26" t="n">
+        <v>-0.4054</v>
+      </c>
+      <c r="F203" s="26" t="n">
+        <v>0.1949</v>
+      </c>
+      <c r="I203" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J203" s="2"/>
       <c r="K203" s="2"/>
       <c r="L203" s="2"/>
       <c r="M203" s="2"/>
@@ -7526,17 +7522,28 @@
       <c r="Z203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B204" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-      <c r="E204" s="2"/>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
+      <c r="A204" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B204" s="26" t="n">
+        <v>0.1285</v>
+      </c>
+      <c r="C204" s="26" t="n">
+        <v>-0.3526</v>
+      </c>
+      <c r="D204" s="26" t="n">
+        <v>0.1677</v>
+      </c>
+      <c r="E204" s="26" t="n">
+        <v>0.0228</v>
+      </c>
+      <c r="F204" s="26" t="n">
+        <v>0.1285</v>
+      </c>
+      <c r="I204" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
       <c r="M204" s="2"/>
@@ -7555,25 +7562,12 @@
       <c r="Z204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G205" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
@@ -7593,28 +7587,21 @@
       <c r="Z205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B206" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C206" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F206" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G206" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2"/>
+      <c r="A206" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D206" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
       <c r="M206" s="2"/>
@@ -7633,18 +7620,25 @@
       <c r="Z206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B207" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-      <c r="E207" s="5"/>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
-      <c r="J207" s="2"/>
+      <c r="A207" s="5"/>
+      <c r="B207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
       <c r="M207" s="2"/>
@@ -7664,17 +7658,27 @@
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B208" s="14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-      <c r="E208" s="5"/>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
-      <c r="J208" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C208" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D208" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E208" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" s="9"/>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
       <c r="M208" s="2"/>
@@ -7693,13 +7697,28 @@
       <c r="Z208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B209" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J209" s="2"/>
+      <c r="A209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F209" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G209" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" s="9"/>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
       <c r="M209" s="2"/>
@@ -7718,13 +7737,27 @@
       <c r="Z209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="18" t="s">
-        <v>107</v>
+      <c r="A210" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B210" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J210" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="C210" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
       <c r="M210" s="2"/>
@@ -7743,13 +7776,17 @@
       <c r="Z210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="18" t="s">
-        <v>108</v>
+      <c r="A211" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B211" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="J211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
       <c r="M211" s="2"/>
@@ -7768,25 +7805,25 @@
       <c r="Z211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B212" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C212" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E212" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F212" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" s="10"/>
+      <c r="A212" s="2"/>
+      <c r="B212" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
@@ -7806,25 +7843,27 @@
       <c r="Z212" s="2"/>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B213" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C213" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D213" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E213" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F213" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" s="10"/>
+      <c r="A213" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B213" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D213" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G213" s="33" t="n">
+        <v>0</v>
+      </c>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
@@ -7844,15 +7883,17 @@
       <c r="Z213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
+      <c r="A214" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B214" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
+      <c r="E214" s="5"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
@@ -7872,12 +7913,17 @@
       <c r="Z214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I215" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="A215" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B215" s="14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
@@ -7897,19 +7943,12 @@
       <c r="Z215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B216" s="26" t="n">
-        <v>-0.052</v>
-      </c>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-      <c r="E216" s="2"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
+      <c r="A216" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B216" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
@@ -7929,19 +7968,12 @@
       <c r="Z216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B217" s="26" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-      <c r="E217" s="2"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
+      <c r="A217" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B217" s="14" t="n">
+        <v>2</v>
+      </c>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
       <c r="L217" s="2"/>
@@ -7961,19 +7993,12 @@
       <c r="Z217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B218" s="26" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
+      <c r="A218" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B218" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
@@ -7993,19 +8018,25 @@
       <c r="Z218" s="2"/>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B219" s="26" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-      <c r="E219" s="2"/>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
-      <c r="H219" s="2"/>
-      <c r="I219" s="2"/>
+      <c r="A219" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B219" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D219" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F219" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" s="10"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
       <c r="L219" s="2"/>
@@ -8025,19 +8056,25 @@
       <c r="Z219" s="2"/>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B220" s="26" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-      <c r="E220" s="2"/>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
-      <c r="H220" s="2"/>
-      <c r="I220" s="2"/>
+      <c r="A220" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B220" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D220" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" s="10"/>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
       <c r="L220" s="2"/>
@@ -8057,12 +8094,8 @@
       <c r="Z220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B221" s="26" t="n">
-        <v>-3.15</v>
-      </c>
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -8089,19 +8122,12 @@
       <c r="Z221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B222" s="26" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="2"/>
+      <c r="A222" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I222" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
       <c r="L222" s="2"/>
@@ -8122,10 +8148,10 @@
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B223" s="26" t="n">
-        <v>0.23</v>
+        <v>-0.052</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -8154,24 +8180,18 @@
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B224" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C224" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D224" s="26" t="n">
-        <v>0.057</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B224" s="26" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2"/>
-      <c r="I224" s="9" t="s">
-        <v>118</v>
-      </c>
+      <c r="I224" s="2"/>
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
@@ -8192,10 +8212,10 @@
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B225" s="30" t="n">
-        <v>0.00152</v>
+        <v>76</v>
+      </c>
+      <c r="B225" s="26" t="n">
+        <v>0.021</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -8203,9 +8223,7 @@
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
-      <c r="I225" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="I225" s="2"/>
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
       <c r="L225" s="2"/>
@@ -8225,8 +8243,12 @@
       <c r="Z225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
+      <c r="A226" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B226" s="26" t="n">
+        <v>0.072</v>
+      </c>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -8253,19 +8275,19 @@
       <c r="Z226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B227" s="2"/>
+      <c r="A227" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B227" s="26" t="n">
+        <v>0.23</v>
+      </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2"/>
-      <c r="I227" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="I227" s="2"/>
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
       <c r="L227" s="2"/>
@@ -8285,15 +8307,23 @@
       <c r="Z227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B228" s="28" t="n">
-        <v>2200</v>
-      </c>
-      <c r="I228" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="A228" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B228" s="26" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
@@ -8309,15 +8339,23 @@
       <c r="Z228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B229" s="28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="I229" s="10" t="s">
-        <v>125</v>
-      </c>
+      <c r="A229" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B229" s="26" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2"/>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
@@ -8333,15 +8371,23 @@
       <c r="Z229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B230" s="28" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="I230" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="A230" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B230" s="26" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
@@ -8357,15 +8403,29 @@
       <c r="Z230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B231" s="28" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I231" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="A231" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B231" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D231" s="26" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="2"/>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
@@ -8380,13 +8440,196 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B232" s="32" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
+      <c r="U232" s="2"/>
+      <c r="V232" s="2"/>
+      <c r="W232" s="2"/>
+      <c r="X232" s="2"/>
+      <c r="Y232" s="2"/>
+      <c r="Z232" s="2"/>
+    </row>
+    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
+      <c r="U233" s="2"/>
+      <c r="V233" s="2"/>
+      <c r="W233" s="2"/>
+      <c r="X233" s="2"/>
+      <c r="Y233" s="2"/>
+      <c r="Z233" s="2"/>
+    </row>
+    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
+      <c r="U234" s="2"/>
+      <c r="V234" s="2"/>
+      <c r="W234" s="2"/>
+      <c r="X234" s="2"/>
+      <c r="Y234" s="2"/>
+      <c r="Z234" s="2"/>
+    </row>
+    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A235" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B235" s="28" t="n">
+        <v>2200</v>
+      </c>
+      <c r="I235" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="N235" s="2"/>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2"/>
+      <c r="S235" s="2"/>
+      <c r="T235" s="2"/>
+      <c r="U235" s="2"/>
+      <c r="V235" s="2"/>
+      <c r="W235" s="2"/>
+      <c r="X235" s="2"/>
+      <c r="Y235" s="2"/>
+      <c r="Z235" s="2"/>
+    </row>
+    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A236" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B236" s="28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I236" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N236" s="2"/>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
+      <c r="U236" s="2"/>
+      <c r="V236" s="2"/>
+      <c r="W236" s="2"/>
+      <c r="X236" s="2"/>
+      <c r="Y236" s="2"/>
+      <c r="Z236" s="2"/>
+    </row>
+    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A237" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B237" s="28" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I237" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="N237" s="2"/>
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2"/>
+      <c r="V237" s="2"/>
+      <c r="W237" s="2"/>
+      <c r="X237" s="2"/>
+      <c r="Y237" s="2"/>
+      <c r="Z237" s="2"/>
+    </row>
+    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A238" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B238" s="28" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I238" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="N238" s="2"/>
+      <c r="O238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="Q238" s="2"/>
+      <c r="R238" s="2"/>
+      <c r="S238" s="2"/>
+      <c r="T238" s="2"/>
+      <c r="U238" s="2"/>
+      <c r="V238" s="2"/>
+      <c r="W238" s="2"/>
+      <c r="X238" s="2"/>
+      <c r="Y238" s="2"/>
+      <c r="Z238" s="2"/>
+    </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9153,6 +9396,13 @@
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1006" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1007" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1008" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1009" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1010" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1011" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
